--- a/Agenda QuantGen Lab Meeting.xlsx
+++ b/Agenda QuantGen Lab Meeting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">Time </t>
   </si>
@@ -42,12 +42,6 @@
     <t>Factor Analysis, High-dimensional mixed models</t>
   </si>
   <si>
-    <t xml:space="preserve">Gustavo de los Campos, Ana Vazquez, Marco Lopez-Cruz, Felix Enciso, Lian Lian, Mengying Sun, Hank Wu, Agustin Gonzalez </t>
-  </si>
-  <si>
-    <t>Gustavo de los Campos, Ana Vazquez, Alexander Grueneberg, Felix Enciso, Lian Lian, Mengying Sun, Hank Wu, Agustin Gonzalez, Sudha Veturi</t>
-  </si>
-  <si>
     <t>2015 Fall GuantGen Lab Meeting</t>
   </si>
   <si>
@@ -66,15 +60,6 @@
     <t>Yeni</t>
   </si>
   <si>
-    <t>Fast GWAS using Ridge-regression type methods.</t>
-  </si>
-  <si>
-    <t>Hank Wu</t>
-  </si>
-  <si>
-    <t>Cluster of gene expression</t>
-  </si>
-  <si>
     <t>Mengying Sun</t>
   </si>
   <si>
@@ -114,10 +99,31 @@
     <t>1. Introduction of factor analysis 2. Dissecting High-dimensional phenotypes with bayesian sparse factor analysis of genetic covariance matrics</t>
   </si>
   <si>
-    <t>Gustavo de los Campos, Ana Vazquez, Alexander Grueneberg, Felix Enciso, Lian Lian, Mengying Sun, Hank Wu, Agustin Gonzalez, Sudha Veturi, Fernando Aguate</t>
-  </si>
-  <si>
     <t>1. Background theory 2.Ideas and pilot application using GWAS</t>
+  </si>
+  <si>
+    <t>Rapid screening for phenotype-genotype association by linear transformations of genomic evaluations</t>
+  </si>
+  <si>
+    <t>1. Background 2. Datasets and Methods 3. Results and Discussion 4. gwaR: GWA from GBLUP Model 5. Conclusions</t>
+  </si>
+  <si>
+    <t>Gustavo de los Campos, Ana Vazquez, Marco Lopez-Cruz, Felix Enciso, Lian Lian, Mengying Sun, Hank Wu, Agustin Gonzalez, Hwasoon Kim</t>
+  </si>
+  <si>
+    <t>Gustavo de los Campos, Ana Vazquez, Alexander Grueneberg, Lian Lian, Mengying Sun, Hank Wu, Agustin Gonzalez, Sudha Veturi, Fernando Aguate, Marco Lopez-Cruz, Hwasoon Kim</t>
+  </si>
+  <si>
+    <t>Gustavo de los Campos, Ana Vazquez, Alexander Grueneberg, Felix Enciso, Lian Lian, Mengying Sun, Hank Wu, Agustin Gonzalez, Sudha Veturi, Fernando Aguate, Hwasoon Kim</t>
+  </si>
+  <si>
+    <t>Gustavo de los Campos, Ana Vazquez, Alexander Grueneberg, Lian Lian, Mengying Sun, Hank Wu, Agustin Gonzalez, Sudha Veturi, Fernando Aguate, Hwasoon Kim, Yeni Liliana Bernal Rubio</t>
+  </si>
+  <si>
+    <t>Gustavo de los Campos, Ana Vazquez, Alexander Grueneberg, Lian Lian, Hank Wu, Agustin Gonzalez, Sudha Veturi, Fernando Aguate, Marco Lopez-Cruz, Hwasoon Kim, Xiaoran Tong, Scott, Yeni Liliana Bernal Rubio</t>
+  </si>
+  <si>
+    <t>1. Facts about Gout 2. ARIC Dataset 3. Statistical Analysis 4.Discussion</t>
   </si>
 </sst>
 </file>
@@ -229,11 +235,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -540,7 +546,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,17 +559,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="A1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -583,7 +589,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -597,13 +603,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>42271</v>
       </c>
@@ -614,10 +620,10 @@
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -625,68 +631,69 @@
         <v>42292</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42297</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42313</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>42297</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
+      <c r="D8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>42306</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>42313</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>42320</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -694,10 +701,10 @@
         <v>42327</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -705,10 +712,10 @@
         <v>42341</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -726,14 +733,14 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">

--- a/Agenda QuantGen Lab Meeting.xlsx
+++ b/Agenda QuantGen Lab Meeting.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">Time </t>
   </si>
@@ -69,9 +69,6 @@
     <t>Lian Lian</t>
   </si>
   <si>
-    <t>Functional Linear (Meta) Analyses</t>
-  </si>
-  <si>
     <t>Sudha Veturi</t>
   </si>
   <si>
@@ -120,10 +117,19 @@
     <t>Gustavo de los Campos, Ana Vazquez, Alexander Grueneberg, Lian Lian, Mengying Sun, Hank Wu, Agustin Gonzalez, Sudha Veturi, Fernando Aguate, Hwasoon Kim, Yeni Liliana Bernal Rubio</t>
   </si>
   <si>
-    <t>Gustavo de los Campos, Ana Vazquez, Alexander Grueneberg, Lian Lian, Hank Wu, Agustin Gonzalez, Sudha Veturi, Fernando Aguate, Marco Lopez-Cruz, Hwasoon Kim, Xiaoran Tong, Scott, Yeni Liliana Bernal Rubio</t>
-  </si>
-  <si>
     <t>1. Facts about Gout 2. ARIC Dataset 3. Statistical Analysis 4.Discussion</t>
+  </si>
+  <si>
+    <t>SKAT and Score test for mutiple random effects</t>
+  </si>
+  <si>
+    <t>Gustavo de los Campos, Ana Vazquez, Alexander Grueneberg, Lian Lian, Hank Wu, Agustin Gonzalez, Sudha Veturi, Fernando Aguate, Marco Lopez-Cruz, Hwasoon Kim, Xiaoran Tong, Scott Funkhouser, Yeni Liliana Bernal Rubio</t>
+  </si>
+  <si>
+    <t>Gustavo de los Campos, Ana Vazquez, Alexander Grueneberg, Mengying Sun, Hank Wu, Agustin Gonzalez, Sudha Veturi, Fernando Aguate,  Hwasoon Kim, Xiaoran Tong, Scott Funkhouser, Yeni Liliana Bernal Rubio</t>
+  </si>
+  <si>
+    <t>1. Background of Score test and SKAT test 2. Software (SKAT2) 3.Simulation and real data result</t>
   </si>
 </sst>
 </file>
@@ -543,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +595,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -603,10 +609,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -620,10 +626,10 @@
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -637,10 +643,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -651,13 +657,13 @@
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -671,87 +677,93 @@
         <v>15</v>
       </c>
       <c r="D8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42320</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="D9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="4"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>42320</v>
+        <v>42327</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>42327</v>
-      </c>
-      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="2" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>42341</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>42341</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A18" r:id="rId1"/>
+    <hyperlink ref="A17" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Agenda QuantGen Lab Meeting.xlsx
+++ b/Agenda QuantGen Lab Meeting.xlsx
@@ -75,12 +75,6 @@
     <t>Genetic correlation for quantitative human traits</t>
   </si>
   <si>
-    <t xml:space="preserve">Agustin Gonzalez </t>
-  </si>
-  <si>
-    <t>Distribution of QTL additive and dominance effects in porcine F2 crosses</t>
-  </si>
-  <si>
     <t>https://github.com/QuantGen/LAB-FALL-2015</t>
   </si>
   <si>
@@ -130,6 +124,12 @@
   </si>
   <si>
     <t>1. Background of Score test and SKAT test 2. Software (SKAT2) 3.Simulation and real data result</t>
+  </si>
+  <si>
+    <t>Gustavo de los Campos, Ana Vazquez, Mengying Sun, Hank Wu,Sudha Veturi, Fernando Aguate,  Hwasoon Kim, Xiaoran Tong, Scott Funkhouser, Yeni Liliana Bernal Rubio,Lian Lian</t>
+  </si>
+  <si>
+    <t>1.Background 2. Methods of estimating genetic correlation 3.Application</t>
   </si>
 </sst>
 </file>
@@ -210,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -224,12 +224,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -552,7 +546,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,37 +559,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>23</v>
+      <c r="E3" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -609,10 +603,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -626,10 +620,10 @@
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -643,10 +637,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -657,13 +651,13 @@
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>28</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -676,11 +670,11 @@
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>33</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -691,46 +685,44 @@
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="E9" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42327</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E10" s="12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>42327</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>42341</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -744,15 +736,15 @@
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>22</v>
+      <c r="A16" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>21</v>
+      <c r="A17" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
